--- a/Zillow_Group_Temp/Median Police vs. Housing Price.xlsx
+++ b/Zillow_Group_Temp/Median Police vs. Housing Price.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alee1\Desktop\Zillow_Group_Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\Desktop\Project_Zillow\Zillow_Group_Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ECE4581F-2376-4276-A89C-020583B1B310}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{685FA08B-72BE-4E06-ABF1-04417E6A619A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>City</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Irvine</t>
   </si>
   <si>
-    <t>Laguna Beach</t>
-  </si>
-  <si>
     <t>La Habra</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
   </si>
   <si>
     <t>Los Alamitos</t>
-  </si>
-  <si>
-    <t>Newport Beach</t>
   </si>
   <si>
     <t>Orange</t>
@@ -99,7 +93,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -162,7 +156,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -195,6 +189,14 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42785314846017936"/>
+          <c:y val="2.5848137780750804E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -273,8 +275,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="-1.0770057408646169E-2"/>
+                  <c:x val="-1.0401039514287723E-3"/>
+                  <c:y val="-3.2310172225938426E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -282,7 +284,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B7F483D2-502C-415F-8D34-7FA68CB24255}" type="CELLRANGE">
+                    <a:fld id="{CCA13F8D-5D31-4B1F-BBF6-55DC329A0FBC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -311,8 +313,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.8015561913411407E-2"/>
-                  <c:y val="-2.5848137780750804E-2"/>
+                  <c:x val="-5.2978063306786935E-2"/>
+                  <c:y val="-2.3694126299021571E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -320,7 +322,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FC6AFA18-DB52-481B-BE5A-770FFFAD7D3A}" type="CELLRANGE">
+                    <a:fld id="{609E3A8A-E690-4A14-8AA3-A3C9D8CB6538}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -349,8 +351,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.8045385317144433E-17"/>
-                  <c:y val="6.4620344451877011E-3"/>
+                  <c:x val="1.3521351368572056E-2"/>
+                  <c:y val="2.1540114817292337E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -358,7 +360,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ED00843E-FBBC-4D3B-901E-4E3460B80500}" type="CELLRANGE">
+                    <a:fld id="{0795BBD7-C40E-45CE-86AE-6BAA11101C98}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -387,8 +389,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.0376134042004224E-3"/>
-                  <c:y val="-6.4620344451877011E-3"/>
+                  <c:x val="1.6639206284389897E-2"/>
+                  <c:y val="1.9386103335563024E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -396,7 +398,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E0DFA4F8-0882-4F6A-B173-A77D0A168AD2}" type="CELLRANGE">
+                    <a:fld id="{A5E337E5-98DD-4660-8937-18F851E434EB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -425,8 +427,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.7639427871407182E-2"/>
-                  <c:y val="2.5848137780750645E-2"/>
+                  <c:x val="-4.8842544477547614E-2"/>
+                  <c:y val="3.661819518939697E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -434,7 +436,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CFB8BF99-3E12-4335-80D3-C90EA08C79E9}" type="CELLRANGE">
+                    <a:fld id="{18FE3EED-0FE0-44AF-80F5-2BC7115216BA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -463,8 +465,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.0466922763816457E-2"/>
-                  <c:y val="-2.8002149262480194E-2"/>
+                  <c:x val="-2.5905467818282867E-2"/>
+                  <c:y val="-4.7388252598043218E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -472,7 +474,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{09E9D3E8-DFBA-4F32-B34C-0E71FFF21F86}" type="CELLRANGE">
+                    <a:fld id="{296F45B8-B0B1-4E30-825D-5CA048061B33}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -501,8 +503,8 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.2451360850404993E-2"/>
-                  <c:y val="1.2924068890375402E-2"/>
+                  <c:x val="1.9732082325783742E-2"/>
+                  <c:y val="3.8772206671126123E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -510,7 +512,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E5D2CE5D-1AC3-4DD4-80AE-57116FEE2CAA}" type="CELLRANGE">
+                    <a:fld id="{ECC6C1EE-1C7E-4269-AD7E-DFE128CD2C20}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -539,8 +541,8 @@
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="1.0770057408646011E-2"/>
+                  <c:x val="8.3208316114289568E-3"/>
+                  <c:y val="3.0156160744209272E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -548,7 +550,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{79FAB52A-1D1C-47D8-8608-CC47193BAA10}" type="CELLRANGE">
+                    <a:fld id="{CC2218B4-0118-4425-8B6F-564381CF5F9C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -577,8 +579,8 @@
               <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="-1.2924068890375322E-2"/>
+                  <c:x val="1.7681767174286534E-2"/>
+                  <c:y val="-1.292406889037548E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -586,7 +588,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{37EEF821-CE77-4DF1-8907-06FFC0DDA9DC}" type="CELLRANGE">
+                    <a:fld id="{8F865EDF-C9C4-4F3F-B072-0B9AF32C40D9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -615,8 +617,8 @@
               <c:idx val="9"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.6090770634288866E-17"/>
-                  <c:y val="-1.2924068890375402E-2"/>
+                  <c:x val="9.3609355628575773E-3"/>
+                  <c:y val="-2.1540114817292337E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -624,7 +626,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CDEF3E2D-C49E-4CFB-9C08-0756676ED1EE}" type="CELLRANGE">
+                    <a:fld id="{D754581D-2DDD-4671-9634-B952809C53B6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -662,7 +664,37 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{00CB71EA-FBC5-44B8-B97D-3090817258BC}" type="CELLRANGE">
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-7E44-4720-88DA-AB12BBA37F5F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.2259379321652391E-3"/>
+                  <c:y val="-4.3080229634584674E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5622EA89-A571-476A-96F1-3E107D656A1C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -683,16 +715,16 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-7E44-4720-88DA-AB12BBA37F5F}"/>
+                  <c16:uniqueId val="{00000010-7E44-4720-88DA-AB12BBA37F5F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="11"/>
+              <c:idx val="12"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.2827494892409293E-2"/>
-                  <c:y val="-3.0156160744209272E-2"/>
+                  <c:x val="-4.4647240145588345E-2"/>
+                  <c:y val="-4.9542264079772295E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -700,7 +732,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{963E524A-D85E-4A71-8844-2299F1B58639}" type="CELLRANGE">
+                    <a:fld id="{A2673813-DB69-4E8C-A4FF-D8FB0C4AB3BC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -721,16 +753,16 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-7E44-4720-88DA-AB12BBA37F5F}"/>
+                  <c16:uniqueId val="{00000013-7E44-4720-88DA-AB12BBA37F5F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="12"/>
+              <c:idx val="13"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.2166015530213116E-2"/>
-                  <c:y val="-2.8002149262480038E-2"/>
+                  <c:x val="1.3518894430104114E-2"/>
+                  <c:y val="1.9386103335563103E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -738,7 +770,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A391D2D8-37E6-4B72-9158-4CC2E1804530}" type="CELLRANGE">
+                    <a:fld id="{19CBE3B5-4E66-45E5-B0C0-07F8DB99A2DE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -759,16 +791,16 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000013-7E44-4720-88DA-AB12BBA37F5F}"/>
+                  <c16:uniqueId val="{00000016-7E44-4720-88DA-AB12BBA37F5F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="13"/>
+              <c:idx val="14"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.0376134042004033E-3"/>
-                  <c:y val="1.0770057408646169E-2"/>
+                  <c:x val="0"/>
+                  <c:y val="6.4620344451877011E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -776,7 +808,37 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0EC12AD5-245C-48D6-AF3D-808A853AF830}" type="CELLRANGE">
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-7E44-4720-88DA-AB12BBA37F5F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.3892498131498296E-2"/>
+                  <c:y val="1.9386103335563183E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{36C68376-2EE0-4B54-860D-BEF64227495F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -797,16 +859,16 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000016-7E44-4720-88DA-AB12BBA37F5F}"/>
+                  <c16:uniqueId val="{00000006-7E44-4720-88DA-AB12BBA37F5F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="14"/>
+              <c:idx val="16"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="6.4620344451877011E-3"/>
+                  <c:x val="7.278270721532358E-3"/>
+                  <c:y val="-1.7232091853833949E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -814,7 +876,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2A4883CC-001C-40D2-A6C6-DC2C725311D7}" type="CELLRANGE">
+                    <a:fld id="{CC5C964D-9DDD-44E8-9AE3-A8CABD76C07B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -835,16 +897,16 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-7E44-4720-88DA-AB12BBA37F5F}"/>
+                  <c16:uniqueId val="{00000012-7E44-4720-88DA-AB12BBA37F5F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="15"/>
+              <c:idx val="17"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.2451360850405069E-2"/>
-                  <c:y val="-1.0770057408646169E-2"/>
+                  <c:x val="-1.0401039514287723E-3"/>
+                  <c:y val="-4.0926218152855437E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -852,7 +914,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B1930D6D-99CE-44B0-BC8E-4C96F5EF935B}" type="CELLRANGE">
+                    <a:fld id="{40324DD8-84DC-4B95-8CC5-E6DE0BC1C76A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -873,16 +935,16 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-7E44-4720-88DA-AB12BBA37F5F}"/>
+                  <c16:uniqueId val="{00000002-7E44-4720-88DA-AB12BBA37F5F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="16"/>
+              <c:idx val="18"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.0376134042004224E-3"/>
-                  <c:y val="-1.2924068890375402E-2"/>
+                  <c:x val="2.1834730266648256E-2"/>
+                  <c:y val="-1.5078080372104636E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -890,7 +952,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{12D833EE-11C1-449C-9ED4-3B7BF2B15A30}" type="CELLRANGE">
+                    <a:fld id="{5EF97984-FF0B-4975-9D5A-D70765511338}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -911,15 +973,15 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000012-7E44-4720-88DA-AB12BBA37F5F}"/>
+                  <c16:uniqueId val="{00000015-7E44-4720-88DA-AB12BBA37F5F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="17"/>
+              <c:idx val="19"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.5218154126857773E-16"/>
+                  <c:x val="1.4554002606647919E-2"/>
                   <c:y val="-8.6160459269169348E-3"/>
                 </c:manualLayout>
               </c:layout>
@@ -928,7 +990,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F116AD17-6B67-427C-BFBE-60C9C0E7CC9D}" type="CELLRANGE">
+                    <a:fld id="{6207A559-687A-43C5-8388-9B21954C574A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -949,16 +1011,16 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-7E44-4720-88DA-AB12BBA37F5F}"/>
+                  <c16:uniqueId val="{0000000C-7E44-4720-88DA-AB12BBA37F5F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="18"/>
+              <c:idx val="20"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.1128402126012673E-3"/>
-                  <c:y val="-1.0770057408646169E-2"/>
+                  <c:x val="1.4554002606647881E-2"/>
+                  <c:y val="-2.1540114817292417E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -966,83 +1028,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8DD34568-DBAC-4366-8145-F4E9B9C2025E}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000015-7E44-4720-88DA-AB12BBA37F5F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="19"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="3.1128402126012673E-3"/>
-                  <c:y val="-8.6160459269169348E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{DC5A2F74-1866-4AB2-A3BE-EE26D76319CE}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-7E44-4720-88DA-AB12BBA37F5F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="20"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="3.1128402126012296E-3"/>
-                  <c:y val="-2.1540114817292337E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{1300461F-E5F3-4A09-96BB-21852804DC59}" type="CELLRANGE">
+                    <a:fld id="{CEFFDB24-C32F-460F-AA24-33250EC99CB5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1138,6 +1124,81 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.4025374277721513E-2"/>
+                  <c:y val="-0.66543045629765118"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="2000"/>
+                      <a:t>R² = 0.1127</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$22</c:f>
@@ -1174,9 +1235,6 @@
                 <c:pt idx="9">
                   <c:v>281.5</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>82</c:v>
-                </c:pt>
                 <c:pt idx="11">
                   <c:v>101.5</c:v>
                 </c:pt>
@@ -1185,9 +1243,6 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>221</c:v>
@@ -1246,9 +1301,6 @@
                 <c:pt idx="9">
                   <c:v>657250</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>1821900</c:v>
-                </c:pt>
                 <c:pt idx="11">
                   <c:v>416900</c:v>
                 </c:pt>
@@ -1257,9 +1309,6 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>742400</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1673790</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>486930</c:v>
@@ -1319,9 +1368,6 @@
                   <c:pt idx="9">
                     <c:v>Irvine</c:v>
                   </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Laguna Beach</c:v>
-                  </c:pt>
                   <c:pt idx="11">
                     <c:v>La Habra</c:v>
                   </c:pt>
@@ -1330,9 +1376,6 @@
                   </c:pt>
                   <c:pt idx="13">
                     <c:v>Los Alamitos</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Newport Beach</c:v>
                   </c:pt>
                   <c:pt idx="15">
                     <c:v>Orange</c:v>
@@ -1456,9 +1499,6 @@
                       <c:pt idx="9">
                         <c:v>Irvine</c:v>
                       </c:pt>
-                      <c:pt idx="10">
-                        <c:v>Laguna Beach</c:v>
-                      </c:pt>
                       <c:pt idx="11">
                         <c:v>La Habra</c:v>
                       </c:pt>
@@ -1467,9 +1507,6 @@
                       </c:pt>
                       <c:pt idx="13">
                         <c:v>Los Alamitos</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>Newport Beach</c:v>
                       </c:pt>
                       <c:pt idx="15">
                         <c:v>Orange</c:v>
@@ -1534,9 +1571,6 @@
                       <c:pt idx="9">
                         <c:v>657250</c:v>
                       </c:pt>
-                      <c:pt idx="10">
-                        <c:v>1821900</c:v>
-                      </c:pt>
                       <c:pt idx="11">
                         <c:v>416900</c:v>
                       </c:pt>
@@ -1545,9 +1579,6 @@
                       </c:pt>
                       <c:pt idx="13">
                         <c:v>742400</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>1673790</c:v>
                       </c:pt>
                       <c:pt idx="15">
                         <c:v>486930</c:v>
@@ -1711,7 +1742,7 @@
         <c:axId val="482846472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1850000"/>
+          <c:max val="875000"/>
           <c:min val="375000"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1830,7 +1861,7 @@
         <c:crossAx val="487387528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="100000"/>
+        <c:majorUnit val="50000"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2445,15 +2476,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
+      <xdr:colOff>235194</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:rowOff>95982</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>282820</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>86458</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2804,8 +2835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R37" sqref="R37"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2936,19 +2967,11 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>82</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1821900</v>
-      </c>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>101.5</v>
@@ -2959,7 +2982,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>30.5</v>
@@ -2970,7 +2993,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>26</v>
@@ -2980,19 +3003,11 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>217</v>
-      </c>
-      <c r="C16" s="4">
-        <v>1673790</v>
-      </c>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>221</v>
@@ -3003,7 +3018,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>64</v>
@@ -3014,7 +3029,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>589.5</v>
@@ -3025,7 +3040,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>48</v>
@@ -3036,7 +3051,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>140</v>
@@ -3047,7 +3062,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>128</v>
